--- a/Office and SharePoint CTI Team/Frank/Automation Trend/Automation Trend/bin/Debug/Book1.xlsx
+++ b/Office and SharePoint CTI Team/Frank/Automation Trend/Automation Trend/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rca1559c0c8cf45f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re25b2ba51bae438a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -35,7 +35,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/webextensions/webextension/2010/11">
-              <we:webextensionref xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf186d5f6b8ad461c"/>
+              <we:webextensionref xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R93a7643d79494ab1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -47,7 +47,7 @@
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="Rcf5b077e924044e3"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R28651bfcf177467d"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -66,12 +66,12 @@
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{266cbee6-1a51-4b1e-af51-19b727b4d6e5}">
-  <we:reference id="48623fcc-90af-4614-a261-9620cb7c79fd" version="1.0.0.1" store="developer" storeType="Registry"/>
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{dc1dc370-6227-4395-b0f4-d290387e48ad}">
+  <we:reference id="48623fcc-90af-4614-a261-9620cb7c79fd" version="1.0.0.2" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
   <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="Rcf5b077e924044e3"/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R28651bfcf177467d"/>
 </we:webextension>
 </file>
 

--- a/Office and SharePoint CTI Team/Frank/Automation Trend/Automation Trend/bin/Debug/Book1.xlsx
+++ b/Office and SharePoint CTI Team/Frank/Automation Trend/Automation Trend/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Re25b2ba51bae438a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R249eb1b02b2240ed"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -35,7 +35,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/webextensions/webextension/2010/11">
-              <we:webextensionref xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R93a7643d79494ab1"/>
+              <we:webextensionref xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0150f589a74f4ce7"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -47,7 +47,7 @@
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R28651bfcf177467d"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R4205806e0ba34c37"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -66,12 +66,12 @@
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{dc1dc370-6227-4395-b0f4-d290387e48ad}">
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{b5d53a71-bd58-42aa-9de4-cbfd10c622f7}">
   <we:reference id="48623fcc-90af-4614-a261-9620cb7c79fd" version="1.0.0.2" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
   <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R28651bfcf177467d"/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="R4205806e0ba34c37"/>
 </we:webextension>
 </file>
 
